--- a/src/main/java/org/example/test.xlsx
+++ b/src/main/java/org/example/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>||</t>
   </si>
@@ -35,6 +35,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>MyClass</t>
+  </si>
+  <si>
     <t>else</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>==</t>
   </si>
   <si>
+    <t>add</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
     <t>&gt;&gt;</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>else if</t>
   </si>
   <si>
@@ -122,6 +134,12 @@
     <t>*=</t>
   </si>
   <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>multiply</t>
+  </si>
+  <si>
     <t>^</t>
   </si>
   <si>
@@ -144,6 +162,9 @@
   </si>
   <si>
     <t>ternar</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
   <si>
     <t>/=</t>
@@ -224,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,7 +288,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -275,7 +296,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -283,15 +304,15 @@
         <v>9</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -299,7 +320,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -307,7 +328,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -355,7 +376,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -363,23 +384,23 @@
         <v>20</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -387,7 +408,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -395,7 +416,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -403,7 +424,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -411,7 +432,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -427,7 +448,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -435,7 +456,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -443,7 +464,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -451,7 +472,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -467,20 +488,20 @@
         <v>34</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>3</v>
@@ -488,23 +509,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>3</v>
@@ -512,7 +533,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>3</v>
@@ -520,15 +541,15 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>3</v>
@@ -536,7 +557,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>3</v>
@@ -544,15 +565,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>3</v>
@@ -560,7 +581,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>1</v>
@@ -568,18 +589,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -587,7 +608,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -595,7 +616,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -603,22 +624,70 @@
         <v>52</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B50" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/org/example/test.xlsx
+++ b/src/main/java/org/example/test.xlsx
@@ -12,182 +12,206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>||</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>!==</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>findMaxNumber</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>&lt;&lt;</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>!==</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>MyClass</t>
+    <t>convertToUppercase</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>numbers</t>
   </si>
   <si>
     <t>else</t>
   </si>
   <si>
+    <t>addNumbers</t>
+  </si>
+  <si>
     <t>continue</t>
   </si>
   <si>
+    <t>toUpperCase</t>
+  </si>
+  <si>
+    <t>numberList</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
+    <t>===</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем программы: </t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>%=</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>arraySum</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>isEven</t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>numberToCheck</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>maxNumber</t>
+  </si>
+  <si>
+    <t>printMessage</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>===</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>-=</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>%=</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>else if</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>*=</t>
-  </si>
-  <si>
-    <t>divide</t>
-  </si>
-  <si>
-    <t>multiply</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>break</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество строк в файле: </t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>sumArray</t>
+  </si>
+  <si>
     <t>ternar</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>/=</t>
   </si>
   <si>
     <t>instanceof</t>
   </si>
   <si>
-    <t>quotient</t>
-  </si>
-  <si>
     <t>+=</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -201,6 +225,9 @@
   </si>
   <si>
     <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>uppercaseText</t>
   </si>
 </sst>
 </file>
@@ -245,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -264,15 +291,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -280,15 +307,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -296,7 +323,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -304,7 +331,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -312,84 +339,84 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>1</v>
@@ -397,103 +424,103 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>1</v>
@@ -501,58 +528,58 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -560,7 +587,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -568,7 +595,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -576,7 +603,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -584,7 +611,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -592,7 +619,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -600,7 +627,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -608,7 +635,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -616,7 +643,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -624,7 +651,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -640,7 +667,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -656,7 +683,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -664,7 +691,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -680,7 +707,7 @@
         <v>61</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -688,7 +715,71 @@
         <v>62</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
